--- a/docs/1.xlsx
+++ b/docs/1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\ivt-19-1-mayak\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{021D63E7-C340-41D1-A2A3-F6D99CD49DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{374230B1-A4DD-4B62-82FD-668B5DD7BD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{D10878DB-CE49-4ADA-A520-377BB1EBE926}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{013CE2C3-8241-45FE-AAA5-FC10C2B14F28}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{917BF293-AB7F-4E2E-81DF-10F28FA9A792}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C506999-F61F-4C06-90D8-BA12DF3C3CAB}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
